--- a/doc/C-3画面遷移図 .xlsx
+++ b/doc/C-3画面遷移図 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{8382BEB0-C024-4040-910E-A9C0C1C33687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4996E06-9702-4886-9159-9BDE50D8E0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -141,6 +141,39 @@
     <t>戻る</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る押した処理</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るの処理</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集ボタン処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -313,6 +346,241 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="直線矢印コネクタ 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7113736C-5397-448D-9D29-25D724F7146D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="6400800"/>
+          <a:ext cx="4858310" cy="13843748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F667CA-F60C-4DA0-A35C-0CB9DCF1070E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4840941" y="6219265"/>
+          <a:ext cx="4134971" cy="9110382"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="直線矢印コネクタ 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6445635-642C-419F-9E54-50219EBE52E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867275" y="6324600"/>
+          <a:ext cx="4265519" cy="5507691"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="直線矢印コネクタ 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5091E833-15B2-4329-B1C3-188B296B3BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5558118" y="5838265"/>
+          <a:ext cx="3059206" cy="1624853"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -522,13 +790,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>283680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>129830</xdr:rowOff>
+      <xdr:rowOff>154058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>154057</xdr:rowOff>
+      <xdr:colOff>1205592</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8845</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -545,9 +813,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7042289" y="2482091"/>
-          <a:ext cx="1258541" cy="24227"/>
+        <a:xfrm>
+          <a:off x="7019216" y="2548915"/>
+          <a:ext cx="1248483" cy="31680"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -580,15 +848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:colOff>1205592</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>34017</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>92529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -603,8 +871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286750" y="2028825"/>
-          <a:ext cx="2190750" cy="847725"/>
+          <a:off x="8267699" y="2143125"/>
+          <a:ext cx="2175782" cy="874940"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -735,15 +1003,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1188894</xdr:colOff>
+      <xdr:colOff>1182781</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>192421</xdr:colOff>
+      <xdr:colOff>108203</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>159836</xdr:rowOff>
+      <xdr:rowOff>33475</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -755,14 +1023,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="1"/>
+          <a:stCxn id="24" idx="1"/>
           <a:endCxn id="23" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4427394" y="6359236"/>
-          <a:ext cx="1826391" cy="21249918"/>
+          <a:off x="4432487" y="6190129"/>
+          <a:ext cx="1726892" cy="20502140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1295,15 +1563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:colOff>336176</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>52669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:colOff>172891</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>101658</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1316,13 +1584,12 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:endCxn id="23" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-1140278" y="11949793"/>
-          <a:ext cx="23017843" cy="9606643"/>
+          <a:off x="174010" y="10557865"/>
+          <a:ext cx="20723842" cy="9664273"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1354,15 +1621,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>174521</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>38314</xdr:rowOff>
+      <xdr:colOff>163314</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>94344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>89620</xdr:rowOff>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>145650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1377,7 +1644,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5542139" y="14258579"/>
+          <a:off x="5530932" y="15659315"/>
           <a:ext cx="1831332" cy="1900276"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1506,15 +1773,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>30562</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>163502</xdr:rowOff>
+      <xdr:colOff>108203</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>33834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28626</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>153979</xdr:rowOff>
+      <xdr:colOff>106267</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>33115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1529,8 +1796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6091926" y="23283275"/>
-          <a:ext cx="2318700" cy="2761386"/>
+          <a:off x="6159379" y="25347922"/>
+          <a:ext cx="2306476" cy="2688693"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1625,7 +1892,19 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:effectLst/>
             </a:rPr>
-            <a:t>）長期目標：模擬試験を受ける</a:t>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>長期目標：模擬試験を受ける</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
             <a:effectLst/>
@@ -1703,16 +1982,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>644491</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>168537</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16962</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>56478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1229641</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>127953</xdr:rowOff>
+      <xdr:colOff>1285670</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>15894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1727,8 +2006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6013127" y="20517401"/>
-          <a:ext cx="2299650" cy="2383961"/>
+          <a:off x="6068138" y="22681154"/>
+          <a:ext cx="2277238" cy="2312652"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1885,184 +2164,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>192420</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>78008</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1233665</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>9169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>214934</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>68482</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C60C91A-2493-4A8F-8596-955ABEBE81E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6253784" y="26488235"/>
-          <a:ext cx="2343150" cy="2241838"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>　　　　各項目内の画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t> ・ホーム（アイコン）</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>・ヒントページ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>・＠目標名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>・＠詳細</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>・＠期間（終日・終日目標巻き日の繰り返し・長期）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>・＠タグ選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>・ログアウト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>・戻る</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1177636</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>121228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>644491</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>148246</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16962</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>36187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2079,8 +2190,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4416136" y="21682364"/>
-          <a:ext cx="1596991" cy="27018"/>
+          <a:off x="4483371" y="23810463"/>
+          <a:ext cx="1584767" cy="27018"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2112,15 +2223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1165121</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>146767</xdr:rowOff>
+      <xdr:colOff>1153914</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>34709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>174521</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>148011</xdr:rowOff>
+      <xdr:colOff>163314</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>35953</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2137,7 +2248,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4414827" y="15207473"/>
+          <a:off x="4403620" y="16608209"/>
           <a:ext cx="1127312" cy="1244"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2197,64 +2308,6 @@
         <a:xfrm>
           <a:off x="4457700" y="8305800"/>
           <a:ext cx="1247774" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1281545</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30562</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>158741</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC126AD-77B2-43C5-A6EB-A9B6BF92CA0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="24" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4520045" y="24661091"/>
-          <a:ext cx="1571881" cy="2877"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2663,15 +2716,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>148011</xdr:rowOff>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>26920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>527812</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>160623</xdr:rowOff>
+      <xdr:colOff>524239</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>35953</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2685,12 +2738,13 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="79" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7373471" y="15208717"/>
-          <a:ext cx="1513929" cy="12612"/>
+        <a:xfrm flipV="1">
+          <a:off x="7362264" y="16600420"/>
+          <a:ext cx="1521563" cy="9033"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3097,14 +3151,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>524239</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>59442</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>93059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>149642</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>128868</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3119,8 +3173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8892632" y="14483013"/>
-          <a:ext cx="2346831" cy="2689202"/>
+          <a:off x="8883827" y="15321853"/>
+          <a:ext cx="2359639" cy="2557133"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3386,15 +3440,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3409,7 +3463,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8740589" y="10141324"/>
+          <a:off x="8583707" y="11553266"/>
           <a:ext cx="2162735" cy="2162735"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3612,9 +3666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381002</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>28015</xdr:rowOff>
+      <xdr:colOff>224120</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3632,8 +3686,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6615813" y="9097915"/>
-          <a:ext cx="2117913" cy="2131640"/>
+          <a:off x="5831401" y="9882327"/>
+          <a:ext cx="3529855" cy="1974758"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3665,16 +3719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>253599</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>131627</xdr:rowOff>
+      <xdr:colOff>85510</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>64392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3689,7 +3743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11934265" y="9782736"/>
+          <a:off x="11766176" y="10555943"/>
           <a:ext cx="1463834" cy="1543567"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3794,15 +3848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>112920</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>86630</xdr:rowOff>
+      <xdr:colOff>56891</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>97836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>209636</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>116972</xdr:rowOff>
+      <xdr:colOff>153607</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>128178</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3817,7 +3871,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11890302" y="11449395"/>
+          <a:off x="11834273" y="12469130"/>
           <a:ext cx="1463834" cy="1543136"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3922,15 +3976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>32196</xdr:rowOff>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3942,13 +3996,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
           <a:endCxn id="89" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10914529" y="10554520"/>
-          <a:ext cx="1019736" cy="203127"/>
+          <a:off x="10746442" y="11327727"/>
+          <a:ext cx="1019734" cy="1306907"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3980,15 +4035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>14136</xdr:rowOff>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>112920</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>17757</xdr:rowOff>
+      <xdr:colOff>56891</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4000,13 +4055,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
           <a:endCxn id="90" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10903323" y="11713077"/>
-          <a:ext cx="986979" cy="507886"/>
+          <a:off x="10746442" y="12634634"/>
+          <a:ext cx="1087831" cy="606064"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4039,15 +4095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>365658</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>131625</xdr:rowOff>
+      <xdr:colOff>388070</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4062,7 +4118,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12046324" y="13480676"/>
+          <a:off x="12068736" y="15004675"/>
           <a:ext cx="1463834" cy="1543567"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4167,15 +4223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>226839</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:colOff>394927</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>105978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>323555</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>103132</xdr:rowOff>
+      <xdr:colOff>491643</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>136750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4190,8 +4246,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11997018" y="19625824"/>
-          <a:ext cx="1457430" cy="1622808"/>
+          <a:off x="12172309" y="21049772"/>
+          <a:ext cx="1463834" cy="1543566"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4295,15 +4351,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>32195</xdr:rowOff>
+      <xdr:colOff>149642</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>43400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>26920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4315,13 +4371,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
           <a:endCxn id="100" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11217088" y="14252460"/>
-          <a:ext cx="829236" cy="617746"/>
+          <a:off x="11243466" y="15776459"/>
+          <a:ext cx="825270" cy="823961"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4353,15 +4410,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>354451</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>52753</xdr:rowOff>
+      <xdr:colOff>388069</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>108781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4376,7 +4433,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12035117" y="15251205"/>
+          <a:off x="12068735" y="16988116"/>
           <a:ext cx="1463834" cy="1543136"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4481,15 +4538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>149642</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>26920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>121626</xdr:rowOff>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4502,13 +4559,14 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:stCxn id="79" idx="3"/>
           <a:endCxn id="107" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11228295" y="15408088"/>
-          <a:ext cx="806822" cy="614685"/>
+          <a:off x="11243466" y="16600420"/>
+          <a:ext cx="825269" cy="1159264"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4541,15 +4599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>407427</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>89620</xdr:rowOff>
+      <xdr:colOff>395422</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>145650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>104456</xdr:rowOff>
+      <xdr:colOff>206511</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4567,8 +4625,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6523618" y="16928679"/>
-          <a:ext cx="2491336" cy="2613359"/>
+          <a:off x="6178838" y="17827351"/>
+          <a:ext cx="3338580" cy="2803060"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4601,15 +4659,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>27216</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>206511</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>49627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>408216</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>4803</xdr:rowOff>
+      <xdr:colOff>587511</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4624,8 +4682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9075966" y="18342429"/>
-          <a:ext cx="1741714" cy="2277195"/>
+          <a:off x="9249658" y="19816803"/>
+          <a:ext cx="1748118" cy="2162735"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4817,15 +4875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:colOff>404212</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>166485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>355251</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>85201</xdr:rowOff>
+      <xdr:colOff>500928</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>29171</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4840,8 +4898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12028714" y="17838964"/>
-          <a:ext cx="1457430" cy="1622808"/>
+          <a:off x="12181594" y="19261309"/>
+          <a:ext cx="1463834" cy="1543568"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4945,15 +5003,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:colOff>603517</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>28816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>226839</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>176192</xdr:rowOff>
+      <xdr:colOff>394927</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>41722</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4971,8 +5029,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10844893" y="19716750"/>
-          <a:ext cx="1152125" cy="720478"/>
+          <a:off x="11013782" y="21140698"/>
+          <a:ext cx="1158527" cy="685259"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5005,15 +5063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>158261</xdr:rowOff>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>97828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>140696</xdr:rowOff>
+      <xdr:colOff>404212</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5030,176 +5088,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10790464" y="18650368"/>
-          <a:ext cx="1238250" cy="690007"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>214934</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>161692</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直線コネクタ 145">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F997AB29-2A9B-0314-A93E-EB3FA084F4D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8583327" y="28206013"/>
-          <a:ext cx="6588637" cy="69630"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28626</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>158741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="直線矢印コネクタ 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101E9C84-0CF2-4FAB-8263-BD25A3F80750}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8397019" y="25195884"/>
-          <a:ext cx="6802160" cy="18152"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1229641</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>148245</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="158" name="直線矢印コネクタ 157">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928C8F8C-7DBF-414B-A953-62BE61E2ED4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8291748" y="22178209"/>
-          <a:ext cx="6880216" cy="28648"/>
+          <a:off x="11026589" y="20033093"/>
+          <a:ext cx="1155005" cy="877083"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5343,15 +5233,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>277585</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>85510</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>26875</xdr:rowOff>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5362,12 +5252,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13408478" y="11076214"/>
-          <a:ext cx="1777093" cy="13268"/>
+        <a:xfrm>
+          <a:off x="13230010" y="11327727"/>
+          <a:ext cx="1987578" cy="1420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5399,15 +5291,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>209636</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>13354</xdr:rowOff>
+      <xdr:colOff>153607</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>24560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>610721</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>24813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5424,8 +5316,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13340529" y="12844890"/>
-          <a:ext cx="1817828" cy="253"/>
+          <a:off x="13298107" y="13236295"/>
+          <a:ext cx="1824232" cy="253"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5457,15 +5349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>367392</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>130289</xdr:rowOff>
+      <xdr:colOff>388070</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>43400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5476,12 +5368,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13498285" y="14907646"/>
-          <a:ext cx="1660072" cy="5783"/>
+          <a:off x="13532570" y="15776459"/>
+          <a:ext cx="1662607" cy="1423"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5513,15 +5407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>370114</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:colOff>388069</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>160225</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5532,12 +5426,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="107" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13501007" y="16859250"/>
-          <a:ext cx="1711779" cy="24154"/>
+        <a:xfrm>
+          <a:off x="13532569" y="17759684"/>
+          <a:ext cx="1584166" cy="12845"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5569,15 +5465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>48646</xdr:rowOff>
+      <xdr:colOff>500928</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>97828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5588,12 +5484,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13484679" y="18540753"/>
-          <a:ext cx="1728107" cy="5783"/>
+          <a:off x="13645428" y="20033093"/>
+          <a:ext cx="1616984" cy="14230"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5625,15 +5523,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>329293</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:colOff>491643</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>37320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>173832</xdr:rowOff>
+      <xdr:colOff>104055</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>40021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5644,12 +5542,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13460186" y="20424321"/>
-          <a:ext cx="1793421" cy="10547"/>
+        <a:xfrm>
+          <a:off x="13636143" y="21821555"/>
+          <a:ext cx="1663088" cy="2701"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5681,15 +5581,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>779318</xdr:colOff>
+      <xdr:colOff>784409</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>342223</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>68482</xdr:rowOff>
+      <xdr:colOff>252911</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>33116</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5701,17 +5601,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="24" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="-7171403" y="14133312"/>
-          <a:ext cx="23569255" cy="5624268"/>
+          <a:off x="-6927397" y="13796601"/>
+          <a:ext cx="22982762" cy="5497267"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -970"/>
+            <a:gd name="adj1" fmla="val -995"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -5741,15 +5642,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>415638</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>69270</xdr:rowOff>
+      <xdr:colOff>288962</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>658094</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>121226</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>99252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5764,12 +5665,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7498774" y="27691770"/>
-          <a:ext cx="7775865" cy="1264229"/>
+          <a:off x="7348668" y="25728706"/>
+          <a:ext cx="8048214" cy="2542134"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -334"/>
+            <a:gd name="adj1" fmla="val 433"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -5836,6 +5737,497 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>331373</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>96849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428088</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>127191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F487B9-748A-4B76-B75D-4C45FBD415BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10741638" y="23057702"/>
+          <a:ext cx="1463832" cy="1543136"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>　　更新リザルト画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t> ・ホーム（アイコン）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・ヒントページ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・＠更新（削除）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>・ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>・戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1285670</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>27976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>331373</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>36186</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0794296A-D403-4305-A067-E892877FA2FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8345376" y="23829270"/>
+          <a:ext cx="2396262" cy="8210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557773</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>49822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>164124</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329CB022-B985-41F1-AEAE-B8C71C95C176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="0"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="9286692" y="3860285"/>
+          <a:ext cx="660630" cy="6016116"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34603"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557773</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37152</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E3E2D3-A692-4875-8BAD-A669AC6DF2EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="0"/>
+          <a:endCxn id="39" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8827939" y="6885789"/>
+          <a:ext cx="1451164" cy="5889144"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29923"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395422</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339712</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>94344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58395B73-1D42-488C-8226-7E0D85A381C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="0"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="9296306" y="12154967"/>
+          <a:ext cx="654640" cy="6354055"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34920"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395422</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>145650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>452570</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>166485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82566D6-F7F8-4357-A35E-EC6714300BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="0"/>
+          <a:endCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8829196" y="15176993"/>
+          <a:ext cx="1701718" cy="6466913"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 27611"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428088</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>27976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C3FB09-6733-4140-BDD4-4C53825AD47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12205470" y="23801294"/>
+          <a:ext cx="3112971" cy="27976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -6527,10 +6919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6538,6 +6930,7 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="6" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.25" customWidth="1"/>
     <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
@@ -6563,7 +6956,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7">
-        <v>44718</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6633,38 +7026,65 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I37" s="5"/>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I42" s="5"/>
     </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K111" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="168" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I168" s="8" t="s">
+      <c r="I168" s="8"/>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I169" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6733,12 +7153,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -6870,6 +7284,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D9C8FE4-3821-4909-87E5-F4715F52DB31}">
   <ds:schemaRefs>
@@ -6879,22 +7299,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{212F41EA-289B-4858-8318-0FEFEED11E30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F383A22-7E04-4869-A893-A48170C46918}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6910,4 +7314,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{212F41EA-289B-4858-8318-0FEFEED11E30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>